--- a/VisionModel/output/predicted_trajectoriesX0.xlsx
+++ b/VisionModel/output/predicted_trajectoriesX0.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>895.970856002626</v>
+        <v>838.7376338955329</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>1591.581462952091</v>
+        <v>1584.131602906735</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>2486.216701962089</v>
+        <v>2495.20737646486</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>2979.916204514237</v>
+        <v>2959.437207276416</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>3558.302421450993</v>
+        <v>3607.538196324411</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>3887.724710191817</v>
+        <v>3976.520384812403</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>4394.207755569973</v>
+        <v>4416.985764789569</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>4965.874726069464</v>
+        <v>4970.312816123001</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>5367.365799518117</v>
+        <v>5348.458202839564</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>5594.701915733253</v>
+        <v>5638.494694604529</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>5863.076554011422</v>
+        <v>5933.966239424018</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>6247.547933639223</v>
+        <v>6346.166754829405</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="B14" t="n">
-        <v>6332.317218334124</v>
+        <v>6493.441058445035</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>6660.037651962388</v>
+        <v>6865.611960649431</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>6883.222639449926</v>
+        <v>7103.248667245887</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="B17" t="n">
-        <v>7098.216138309976</v>
+        <v>7226.344060710124</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>7290.464370655573</v>
+        <v>7417.451344920351</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>7475.665772676414</v>
+        <v>7708.274839746323</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>7481.777172493372</v>
+        <v>7772.717299292321</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>7668.226696947761</v>
+        <v>8015.928693941787</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>8107.69320490714</v>
+        <v>8254.578600193758</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.7</v>
       </c>
       <c r="B23" t="n">
-        <v>8282.843887723608</v>
+        <v>8413.208558401786</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>8327.006062906501</v>
+        <v>8448.386311720573</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.7666666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>8520.594581460415</v>
+        <v>8661.708609395282</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.8</v>
       </c>
       <c r="B26" t="n">
-        <v>8749.376497178695</v>
+        <v>8911.114864939369</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>9051.605693501104</v>
+        <v>9159.746586652001</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>9266.998611442028</v>
+        <v>9401.129076062811</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.9</v>
       </c>
       <c r="B29" t="n">
-        <v>9376.431958299436</v>
+        <v>9494.715932235424</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>9566.877051591222</v>
+        <v>9597.654090265871</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>9755.651920797174</v>
+        <v>9735.915919783129</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>10013.49375521877</v>
+        <v>10107.16445152251</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.033333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>10236.74555230064</v>
+        <v>10369.83513935365</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>10320.42823528867</v>
+        <v>10497.53168777822</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.1</v>
       </c>
       <c r="B35" t="n">
-        <v>10414.95518513719</v>
+        <v>10492.64187557545</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.133333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>10144.58950704766</v>
+        <v>10511.74467251392</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>10250.58364007126</v>
+        <v>10659.45536933116</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.2</v>
       </c>
       <c r="B38" t="n">
-        <v>10322.45828256318</v>
+        <v>10780.6741020643</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.233333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>10419.15468191676</v>
+        <v>10899.81047866953</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1.266666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>10504.64563623411</v>
+        <v>11057.98904495969</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" t="n">
-        <v>10567.2648485221</v>
+        <v>11121.69890184989</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>10734.53858515287</v>
+        <v>11152.04992793766</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.366666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>11027.03148793645</v>
+        <v>11313.62404544317</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.4</v>
       </c>
       <c r="B44" t="n">
-        <v>11072.46032514461</v>
+        <v>11488.55564298573</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1.433333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>11123.202828113</v>
+        <v>11611.62376677069</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1.466666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>11175.34487189958</v>
+        <v>11658.72075392685</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1.5</v>
       </c>
       <c r="B47" t="n">
-        <v>11304.54844640177</v>
+        <v>11623.79476981653</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1.533333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>11399.95487891084</v>
+        <v>11825.4625923721</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1.566666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>11390.77605899512</v>
+        <v>11613.85853947689</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1.6</v>
       </c>
       <c r="B50" t="n">
-        <v>11431.40142540384</v>
+        <v>11689.23638223392</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1.633333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>11489.2088253424</v>
+        <v>12059.9044354463</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>11489.94005436549</v>
+        <v>11870.69058719389</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1.7</v>
       </c>
       <c r="B53" t="n">
-        <v>11495.22271227715</v>
+        <v>11903.98182651385</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="B54" t="n">
-        <v>11640.49067452401</v>
+        <v>12121.67493443103</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1.766666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>11664.29687828015</v>
+        <v>12196.36721382907</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1.8</v>
       </c>
       <c r="B56" t="n">
-        <v>11627.80253461854</v>
+        <v>12108.72989448313</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>11674.05188817009</v>
+        <v>12244.93390605437</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1.866666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>11668.64976023189</v>
+        <v>12229.97123178263</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1.9</v>
       </c>
       <c r="B59" t="n">
-        <v>11711.43664678841</v>
+        <v>12348.4553037889</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1.933333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>11711.43664678841</v>
+        <v>12348.4553037889</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1.966666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>11711.43664678841</v>
+        <v>12348.4553037889</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>11711.43664678841</v>
+        <v>12348.4553037889</v>
       </c>
     </row>
   </sheetData>

--- a/VisionModel/output/predicted_trajectoriesX0.xlsx
+++ b/VisionModel/output/predicted_trajectoriesX0.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>838.7376338955329</v>
+        <v>1098.250371487543</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0.03333333333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>1584.131602906735</v>
+        <v>1814.209095653003</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>2495.20737646486</v>
+        <v>2478.773449758434</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>0.1</v>
       </c>
       <c r="B5" t="n">
-        <v>2959.437207276416</v>
+        <v>2933.821426503184</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>3607.538196324411</v>
+        <v>3539.467590233888</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>3976.520384812403</v>
+        <v>4063.607084843637</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>0.2</v>
       </c>
       <c r="B8" t="n">
-        <v>4416.985764789569</v>
+        <v>4307.926644532105</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>0.2333333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>4970.312816123001</v>
+        <v>5388.878248312813</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>5348.458202839564</v>
+        <v>5672.285609285031</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>0.3</v>
       </c>
       <c r="B11" t="n">
-        <v>5638.494694604529</v>
+        <v>6138.896130664856</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>5933.966239424018</v>
+        <v>6475.29518813123</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>0.3666666666666666</v>
       </c>
       <c r="B13" t="n">
-        <v>6346.166754829405</v>
+        <v>6725.227449742923</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>0.4</v>
       </c>
       <c r="B14" t="n">
-        <v>6493.441058445035</v>
+        <v>7106.960042583044</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>0.4333333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>6865.611960649431</v>
+        <v>7377.336667667126</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>0.4666666666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>7103.248667245887</v>
+        <v>7676.112476649897</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.5</v>
       </c>
       <c r="B17" t="n">
-        <v>7226.344060710124</v>
+        <v>7879.439636415213</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="B18" t="n">
-        <v>7417.451344920351</v>
+        <v>8088.92646771216</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.5666666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>7708.274839746323</v>
+        <v>8261.456869429348</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.6</v>
       </c>
       <c r="B20" t="n">
-        <v>7772.717299292321</v>
+        <v>7752.309965008676</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.6333333333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>8015.928693941787</v>
+        <v>7945.192260056127</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>8254.578600193758</v>
+        <v>8159.328026128601</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.7</v>
       </c>
       <c r="B23" t="n">
-        <v>8413.208558401786</v>
+        <v>8329.485314031115</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.7333333333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>8448.386311720573</v>
+        <v>8676.101320752452</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.7666666666666666</v>
       </c>
       <c r="B25" t="n">
-        <v>8661.708609395282</v>
+        <v>8770.064407087555</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.8</v>
       </c>
       <c r="B26" t="n">
-        <v>8911.114864939369</v>
+        <v>8989.014387628475</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>9159.746586652001</v>
+        <v>9087.05865729228</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>9401.129076062811</v>
+        <v>9420.885093148152</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.9</v>
       </c>
       <c r="B29" t="n">
-        <v>9494.715932235424</v>
+        <v>9492.726952204463</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="B30" t="n">
-        <v>9597.654090265871</v>
+        <v>9819.724336068961</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>9735.915919783129</v>
+        <v>9860.530968791916</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>10107.16445152251</v>
+        <v>9818.03404424881</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.033333333333333</v>
       </c>
       <c r="B33" t="n">
-        <v>10369.83513935365</v>
+        <v>9942.806041144024</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.066666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>10497.53168777822</v>
+        <v>10216.71801028242</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.1</v>
       </c>
       <c r="B35" t="n">
-        <v>10492.64187557545</v>
+        <v>10900.9068267242</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.133333333333333</v>
       </c>
       <c r="B36" t="n">
-        <v>10511.74467251392</v>
+        <v>10902.50100427957</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="B37" t="n">
-        <v>10659.45536933116</v>
+        <v>10994.27361408337</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.2</v>
       </c>
       <c r="B38" t="n">
-        <v>10780.6741020643</v>
+        <v>11022.78091327783</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.233333333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>10899.81047866953</v>
+        <v>11129.04893393894</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>1.266666666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>11057.98904495969</v>
+        <v>11358.75241706292</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>1.3</v>
       </c>
       <c r="B41" t="n">
-        <v>11121.69890184989</v>
+        <v>11415.71444630126</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>11152.04992793766</v>
+        <v>11476.63772595368</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.366666666666667</v>
       </c>
       <c r="B43" t="n">
-        <v>11313.62404544317</v>
+        <v>11556.51183221017</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.4</v>
       </c>
       <c r="B44" t="n">
-        <v>11488.55564298573</v>
+        <v>11783.63582183473</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>1.433333333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>11611.62376677069</v>
+        <v>11909.89417332255</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>1.466666666666667</v>
       </c>
       <c r="B46" t="n">
-        <v>11658.72075392685</v>
+        <v>11916.62386862896</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>1.5</v>
       </c>
       <c r="B47" t="n">
-        <v>11623.79476981653</v>
+        <v>12268.27636980571</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>1.533333333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>11825.4625923721</v>
+        <v>12371.39972727417</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>1.566666666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>11613.85853947689</v>
+        <v>12378.52041197571</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>1.6</v>
       </c>
       <c r="B50" t="n">
-        <v>11689.23638223392</v>
+        <v>12442.5913284068</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>1.633333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>12059.9044354463</v>
+        <v>12536.54493864434</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>1.666666666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>11870.69058719389</v>
+        <v>12531.23186938742</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>1.7</v>
       </c>
       <c r="B53" t="n">
-        <v>11903.98182651385</v>
+        <v>12457.71218812057</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>1.733333333333333</v>
       </c>
       <c r="B54" t="n">
-        <v>12121.67493443103</v>
+        <v>12590.94598407466</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>1.766666666666667</v>
       </c>
       <c r="B55" t="n">
-        <v>12196.36721382907</v>
+        <v>12641.74294525916</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>1.8</v>
       </c>
       <c r="B56" t="n">
-        <v>12108.72989448313</v>
+        <v>12599.24780262792</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="B57" t="n">
-        <v>12244.93390605437</v>
+        <v>12710.34760570354</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>1.866666666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>12229.97123178263</v>
+        <v>12696.45595005546</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>1.9</v>
       </c>
       <c r="B59" t="n">
-        <v>12348.4553037889</v>
+        <v>12920.25523719204</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>1.933333333333333</v>
       </c>
       <c r="B60" t="n">
-        <v>12348.4553037889</v>
+        <v>12920.25523719204</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>1.966666666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>12348.4553037889</v>
+        <v>12920.25523719204</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="n">
-        <v>12348.4553037889</v>
+        <v>12920.25523719204</v>
       </c>
     </row>
   </sheetData>
